--- a/IIA/3A1/Transition_to_turbulence/data.xlsx
+++ b/IIA/3A1/Transition_to_turbulence/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IIA\3A1\Transition_to_turbulence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\source\repos\MEng-CW\IIA\3A1\Transition_to_turbulence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7EC9D7-2096-4D7A-A6AB-4570671520E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71010D7-36E0-44ED-8273-7FA19C49C49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preface" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Dial setting</t>
   </si>
@@ -91,6 +91,51 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>dial</t>
+  </si>
+  <si>
+    <t>Uinf</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Laminar</t>
+  </si>
+  <si>
+    <t>Transitioning</t>
+  </si>
+  <si>
+    <t>Turbulent</t>
+  </si>
+  <si>
+    <t>Fully developed</t>
+  </si>
+  <si>
+    <t>Observations from flat plate</t>
+  </si>
+  <si>
+    <t>Observations with protrusion</t>
+  </si>
+  <si>
+    <t>dens</t>
+  </si>
+  <si>
+    <t>visc</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Observations with trip wire</t>
+  </si>
+  <si>
+    <t>dp (mbar)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,11 +185,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,6 +261,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +290,987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calibration!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dP (mBar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calibration!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calibration!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-408C-4015-8AC4-7604A09D9991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931572511"/>
+        <c:axId val="804928831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931572511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804928831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="804928831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931572511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245268</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>283368</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7196EC9D-2482-7C27-9A3E-58588C2576A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,18 +1536,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -451,13 +1557,13 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -467,8 +1573,28 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.7893999999999998E-5</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -476,7 +1602,7 @@
         <v>1.5898670142424867</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -484,9 +1610,239 @@
         <v>0.59689403804214392</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
+        <v>300</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SQRT(2*100*C13/$E$4)</f>
+        <v>4.2378277069118075</v>
+      </c>
+      <c r="E13" s="8">
+        <f>$E$4*D13*$G$4/$F$4</f>
+        <v>203081.32662774535</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
+        <v>650</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:D16" si="0">SQRT(2*100*C14/$E$4)</f>
+        <v>13.030576286847291</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:E16" si="1">$E$4*D14*$G$4/$F$4</f>
+        <v>624439.43031024653</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>820</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>16.111853919853353</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>772097.61575244507</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>18.51640199545103</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>887326.18258071202</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
+        <v>300</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D22" si="2">SQRT(2*100*C20/$E$4)</f>
+        <v>4.2378277069118075</v>
+      </c>
+      <c r="E20" s="8">
+        <f>$E$4*D20*$G$4/$F$4</f>
+        <v>203081.32662774535</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
+        <v>370</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="2"/>
+        <v>7.4505170345173131</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:E23" si="3">$E$4*D21*$G$4/$F$4</f>
+        <v>357036.90382802038</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="12">
+        <v>430</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>8.7598341238605091</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="3"/>
+        <v>419780.80704204686</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="12">
+        <v>200</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ref="D26" si="4">SQRT(2*100*C26/$E$4)</f>
+        <v>2.5555062599997593</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26" si="5">$E$4*D26*$G$4/$F$4</f>
+        <v>122462.64770033497</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -498,16 +1854,16 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -547,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>300</v>
       </c>
@@ -567,7 +1923,7 @@
         <v>2.1463933534185133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>350</v>
       </c>
@@ -587,7 +1943,7 @@
         <v>2.5525062474798461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>400</v>
       </c>
@@ -607,7 +1963,7 @@
         <v>2.768847915649987</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>450</v>
       </c>
@@ -627,7 +1983,7 @@
         <v>3.005840818981024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>500</v>
       </c>
@@ -647,7 +2003,7 @@
         <v>3.1460186245646846</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>550</v>
       </c>
@@ -667,7 +2023,7 @@
         <v>3.3484680395111677</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600</v>
       </c>
@@ -687,7 +2043,7 @@
         <v>3.5102998368350917</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>650</v>
       </c>
@@ -707,7 +2063,7 @@
         <v>3.6097889532280543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>700</v>
       </c>
@@ -727,7 +2083,7 @@
         <v>3.7176623411490066</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>750</v>
       </c>
@@ -747,7 +2103,7 @@
         <v>3.8168871062285388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>800</v>
       </c>
@@ -767,7 +2123,7 @@
         <v>3.9359793425308607</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>850</v>
       </c>
@@ -787,7 +2143,7 @@
         <v>4.0756337777084974</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>900</v>
       </c>
@@ -810,6 +2166,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -818,12 +2175,12 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -851,15 +2208,13 @@
         <v>1.77</v>
       </c>
       <c r="D2">
-        <f>0.001*B2*4*C2*(C2^2-A)/B^2</f>
-        <v>6.7832641874151223E-2</v>
+        <v>0.82544671080138654</v>
       </c>
       <c r="E2">
-        <f>((C2^2-A)/B)^2</f>
-        <v>0.44768911555002283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.6827611354818943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.75</v>
       </c>
@@ -870,15 +2225,13 @@
         <v>1.77</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D23" si="0">0.001*B3*4*C3*(C3^2-A)/B^2</f>
-        <v>4.7901133804889105E-2</v>
+        <v>0.58290274785788843</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E23" si="1">((C3^2-A)/B)^2</f>
-        <v>0.44768911555002283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.6827611354818943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -889,15 +2242,13 @@
         <v>1.78</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>6.6415123902218209E-2</v>
+        <v>0.80409804931609818</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.47331472385694889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9937940778093903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1.25</v>
       </c>
@@ -908,15 +2259,13 @@
         <v>1.78</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>5.4153469406971494E-2</v>
+        <v>0.65564432549963847</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.47331472385694889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9937940778093903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1.5</v>
       </c>
@@ -927,15 +2276,13 @@
         <v>1.79</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>6.1765846152105036E-2</v>
+        <v>0.74418030375727218</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.49980387335898596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.3137136571724302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1.75</v>
       </c>
@@ -946,15 +2293,13 @@
         <v>1.79</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5.6380855205975557E-2</v>
+        <v>0.67929971929717858</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.49980387335898596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.3137136571724302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -965,15 +2310,13 @@
         <v>1.796</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4.174158537673156E-2</v>
+        <v>0.50150460557974297</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.51611690229062934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5099809830771056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2.5</v>
       </c>
@@ -984,15 +2327,13 @@
         <v>1.8009999999999999</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6.1060559560308952E-2</v>
+        <v>0.73193210122569297</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.5299537961750227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.6760327887738073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1003,15 +2344,13 @@
         <v>1.81</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>6.4662604379809877E-2</v>
+        <v>0.77200987659646536</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.55542134732910831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.9806943672865085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>3.5</v>
       </c>
@@ -1022,15 +2361,13 @@
         <v>1.81</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>4.6523782378904491E-2</v>
+        <v>0.55544962714730151</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.55542134732910831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.9806943672865085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1041,15 +2378,13 @@
         <v>1.82</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>4.4816004205522869E-2</v>
+        <v>0.53277551229476339</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.58457411724762365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3279980022351499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1060,15 +2395,13 @@
         <v>1.82</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5.8148003078315996E-2</v>
+        <v>0.69126716400007615</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.58457411724762365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3279980022351499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1079,15 +2412,13 @@
         <v>1.83</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6.5846649306247201E-2</v>
+        <v>0.77958030959025737</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.61463931926211002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.6846732826145434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -1098,15 +2429,13 @@
         <v>1.84</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>4.0182643838841105E-2</v>
+        <v>0.47386213227103341</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.64562934585785448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.0508431445804138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1117,15 +2446,13 @@
         <v>1.84</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>4.5816518515165244E-2</v>
+        <v>0.54030076378014735</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.64562934585785448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.0508431445804138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -1136,15 +2463,13 @@
         <v>1.85</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>4.5839696129470357E-2</v>
+        <v>0.5385273790559969</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.67755665742417415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.4266311979112718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1155,15 +2480,13 @@
         <v>1.855</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>4.0093013686198505E-2</v>
+        <v>0.47014812963563957</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.69387570751046845</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.6181708585880674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1174,15 +2497,13 @@
         <v>1.86</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>3.9500441095518347E-2</v>
+        <v>0.46236302890897779</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.71043378225441423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.8121617260083802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1193,15 +2514,13 @@
         <v>1.865</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.7162570614389998E-2</v>
+        <v>0.31738174057994462</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.72723245830268235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.0086194408509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1212,15 +2531,13 @@
         <v>1.875</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2.1201424967816324E-2</v>
+        <v>0.24687587376719175</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.76155794211888872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.408998186024581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1231,15 +2548,13 @@
         <v>1.88</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.4150798297872339E-2</v>
+        <v>0.1645001832114778</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.77908792440018104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.612950708220289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1250,12 +2565,10 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6.9151527165839726E-3</v>
+        <v>8.0334054080923104E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.78616897401991792</v>
+        <v>10.695239183097604</v>
       </c>
     </row>
   </sheetData>

--- a/IIA/3A1/Transition_to_turbulence/data.xlsx
+++ b/IIA/3A1/Transition_to_turbulence/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\source\repos\MEng-CW\IIA\3A1\Transition_to_turbulence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IIA\3A1\Transition_to_turbulence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71010D7-36E0-44ED-8273-7FA19C49C49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB1962-A691-476A-9757-9B3F0483CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preface" sheetId="1" r:id="rId1"/>
@@ -129,13 +129,13 @@
     <t>visc</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>Observations with trip wire</t>
   </si>
   <si>
     <t>dp (mbar)</t>
+  </si>
+  <si>
+    <t>height</t>
   </si>
 </sst>
 </file>
@@ -253,28 +253,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,32 +1535,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1580,21 +1577,21 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1.2250000000000001</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.7893999999999998E-5</v>
+      <c r="F4" s="4">
+        <v>1.4800000000000001E-5</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>1.5898670142424867</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1610,233 +1607,205 @@
         <v>0.59689403804214392</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>300</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>0.11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <f>SQRT(2*100*C13/$E$4)</f>
         <v>4.2378277069118075</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <f>$E$4*D13*$G$4/$F$4</f>
-        <v>203081.32662774535</v>
-      </c>
-      <c r="F13" s="13" t="s">
+        <v>399873.4049123202</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>650</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>1.04</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <f t="shared" ref="D14:D16" si="0">SQRT(2*100*C14/$E$4)</f>
         <v>13.030576286847291</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <f t="shared" ref="E14:E16" si="1">$E$4*D14*$G$4/$F$4</f>
-        <v>624439.43031024653</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>1229540.5259852866</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>820</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>1.59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>16.111853919853353</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>772097.61575244507</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>1520284.053991568</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="12">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
         <v>1000</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>2.1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>18.51640199545103</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>887326.18258071202</v>
-      </c>
-      <c r="F16" s="14" t="s">
+        <v>1747172.6612599567</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="15" t="s">
+    <row r="17" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>300</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>0.11</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <f t="shared" ref="D20:D22" si="2">SQRT(2*100*C20/$E$4)</f>
         <v>4.2378277069118075</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <f>$E$4*D20*$G$4/$F$4</f>
-        <v>203081.32662774535</v>
-      </c>
-      <c r="F20" s="13" t="s">
+        <v>399873.4049123202</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>370</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>0.34</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <f t="shared" si="2"/>
         <v>7.4505170345173131</v>
       </c>
-      <c r="E21" s="8">
-        <f t="shared" ref="E21:E23" si="3">$E$4*D21*$G$4/$F$4</f>
-        <v>357036.90382802038</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="4">
+        <f t="shared" ref="E21:E22" si="3">$E$4*D21*$G$4/$F$4</f>
+        <v>703016.69180428563</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="12">
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
         <v>430</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>0.47</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <f t="shared" si="2"/>
         <v>8.7598341238605091</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <f t="shared" si="3"/>
-        <v>419780.80704204686</v>
-      </c>
-      <c r="F22" s="14" t="s">
+        <v>826561.37526832428</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="12">
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
         <v>200</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>0.04</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <f t="shared" ref="D26" si="4">SQRT(2*100*C26/$E$4)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <f t="shared" ref="E26" si="5">$E$4*D26*$G$4/$F$4</f>
-        <v>122462.64770033497</v>
-      </c>
-      <c r="F26" s="14" t="s">
+        <v>241132.73595200432</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
@@ -1857,13 +1826,13 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1903,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -1923,7 +1892,7 @@
         <v>2.1463933534185133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>350</v>
       </c>
@@ -1943,7 +1912,7 @@
         <v>2.5525062474798461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1963,7 +1932,7 @@
         <v>2.768847915649987</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>450</v>
       </c>
@@ -1983,7 +1952,7 @@
         <v>3.005840818981024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2003,7 +1972,7 @@
         <v>3.1460186245646846</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>550</v>
       </c>
@@ -2023,7 +1992,7 @@
         <v>3.3484680395111677</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>600</v>
       </c>
@@ -2043,7 +2012,7 @@
         <v>3.5102998368350917</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>650</v>
       </c>
@@ -2063,7 +2032,7 @@
         <v>3.6097889532280543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>700</v>
       </c>
@@ -2083,7 +2052,7 @@
         <v>3.7176623411490066</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>750</v>
       </c>
@@ -2103,7 +2072,7 @@
         <v>3.8168871062285388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>800</v>
       </c>
@@ -2123,7 +2092,7 @@
         <v>3.9359793425308607</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>850</v>
       </c>
@@ -2143,7 +2112,7 @@
         <v>4.0756337777084974</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>900</v>
       </c>
@@ -2174,13 +2143,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3049F2-4DB3-4107-8195-D67997DA9612}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2197,7 +2166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -2214,7 +2183,7 @@
         <v>6.6827611354818943</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.75</v>
       </c>
@@ -2231,7 +2200,7 @@
         <v>6.6827611354818943</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2248,7 +2217,7 @@
         <v>6.9937940778093903</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.25</v>
       </c>
@@ -2265,7 +2234,7 @@
         <v>6.9937940778093903</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.5</v>
       </c>
@@ -2282,7 +2251,7 @@
         <v>7.3137136571724302</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.75</v>
       </c>
@@ -2299,7 +2268,7 @@
         <v>7.3137136571724302</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2316,7 +2285,7 @@
         <v>7.5099809830771056</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.5</v>
       </c>
@@ -2333,7 +2302,7 @@
         <v>7.6760327887738073</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -2350,7 +2319,7 @@
         <v>7.9806943672865085</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.5</v>
       </c>
@@ -2367,7 +2336,7 @@
         <v>7.9806943672865085</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -2384,7 +2353,7 @@
         <v>8.3279980022351499</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -2401,7 +2370,7 @@
         <v>8.3279980022351499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -2418,7 +2387,7 @@
         <v>8.6846732826145434</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -2435,7 +2404,7 @@
         <v>9.0508431445804138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -2452,7 +2421,7 @@
         <v>9.0508431445804138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -2469,7 +2438,7 @@
         <v>9.4266311979112718</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -2486,7 +2455,7 @@
         <v>9.6181708585880674</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -2503,7 +2472,7 @@
         <v>9.8121617260083802</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -2520,7 +2489,7 @@
         <v>10.0086194408509</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -2537,7 +2506,7 @@
         <v>10.408998186024581</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2554,7 +2523,7 @@
         <v>10.612950708220289</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>

--- a/IIA/3A1/Transition_to_turbulence/data.xlsx
+++ b/IIA/3A1/Transition_to_turbulence/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IIA\3A1\Transition_to_turbulence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB1962-A691-476A-9757-9B3F0483CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C03CE-1114-490F-926F-0C1BFFBC3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preface" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Dial setting</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Uinf</t>
   </si>
   <si>
-    <t>Re</t>
-  </si>
-  <si>
     <t>Obs</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Turbulent</t>
   </si>
   <si>
-    <t>Fully developed</t>
-  </si>
-  <si>
     <t>Observations from flat plate</t>
   </si>
   <si>
@@ -136,6 +130,54 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>E_bar</t>
+  </si>
+  <si>
+    <t>E'</t>
+  </si>
+  <si>
+    <t>Ubar</t>
+  </si>
+  <si>
+    <t>U'</t>
+  </si>
+  <si>
+    <t>Re_x</t>
+  </si>
+  <si>
+    <t>dt_spot ms</t>
+  </si>
+  <si>
+    <t>dt_peak ms</t>
+  </si>
+  <si>
+    <t>spot size</t>
+  </si>
+  <si>
+    <t>eddy size</t>
+  </si>
+  <si>
+    <t>DIAL</t>
+  </si>
+  <si>
+    <t>Flat plate</t>
+  </si>
+  <si>
+    <t>Protrusion</t>
+  </si>
+  <si>
+    <t>Trip wire</t>
+  </si>
+  <si>
+    <t>setup</t>
+  </si>
+  <si>
+    <t>eddy size mm</t>
   </si>
 </sst>
 </file>
@@ -253,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +312,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1533,20 +1580,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1554,13 +1604,13 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1571,16 +1621,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1.2250000000000001</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1649,7 @@
         <v>1.5898670142424867</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1607,33 +1657,57 @@
         <v>0.59689403804214392</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>300</v>
       </c>
@@ -1648,11 +1722,25 @@
         <f>$E$4*D13*$G$4/$F$4</f>
         <v>399873.4049123202</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>((J13^2-$C$7)/$C$8)^2</f>
+        <v>1.4145108282113836</v>
+      </c>
+      <c r="G13">
+        <f>0.001*K13*4*J13*(J13^2-$C$7)/$C$8^2</f>
+        <v>8.1923758302220318E-2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>1.5165</v>
+      </c>
+      <c r="K13">
+        <v>6.7779999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>650</v>
       </c>
@@ -1667,11 +1755,40 @@
         <f t="shared" ref="E14:E16" si="1">$E$4*D14*$G$4/$F$4</f>
         <v>1229540.5259852866</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="2">((J14^2-$C$7)/$C$8)^2</f>
+        <v>7.9021272816272736</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G26" si="3">0.001*K14*4*J14*(J14^2-$C$7)/$C$8^2</f>
+        <v>0.77505652418517978</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>1.8077000000000001</v>
+      </c>
+      <c r="K14">
+        <v>22.76</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14" s="15">
+        <f>L14/4</f>
+        <v>6.25</v>
+      </c>
+      <c r="N14">
+        <f>L14*F14/1000</f>
+        <v>0.19755318204068184</v>
+      </c>
+      <c r="O14">
+        <f>M14*G14/1000</f>
+        <v>4.8441032761573737E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>820</v>
       </c>
@@ -1686,11 +1803,41 @@
         <f t="shared" si="1"/>
         <v>1520284.053991568</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>11.066357720989568</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>5.0554695414118103E-3</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>1.8909</v>
+      </c>
+      <c r="K15">
+        <v>0.11992999999999999</v>
+      </c>
+      <c r="L15">
+        <f>8*25</f>
+        <v>200</v>
+      </c>
+      <c r="M15">
+        <f>L15/24</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N21" si="4">L15*F15/1000</f>
+        <v>2.2132715441979136</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O26" si="5">M15*G15/1000</f>
+        <v>4.2128912845098421E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>1000</v>
       </c>
@@ -1705,21 +1852,46 @@
         <f t="shared" si="1"/>
         <v>1747172.6612599567</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>13.252804539076868</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.5953251674052169</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>1.9398</v>
+      </c>
+      <c r="K16">
+        <v>12.58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <f>100/20</f>
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>2.9766258370260844E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>300</v>
       </c>
@@ -1727,18 +1899,32 @@
         <v>0.11</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D22" si="2">SQRT(2*100*C20/$E$4)</f>
+        <f t="shared" ref="D20:D22" si="6">SQRT(2*100*C20/$E$4)</f>
         <v>4.2378277069118075</v>
       </c>
       <c r="E20" s="4">
         <f>$E$4*D20*$G$4/$F$4</f>
         <v>399873.4049123202</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" ref="F20:F22" si="7">((J20^2-$C$7)/$C$8)^2</f>
+        <v>1.6103816711412877</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.26000863275777802</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>1.5321</v>
+      </c>
+      <c r="K20">
+        <v>19.956</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>370</v>
       </c>
@@ -1746,18 +1932,48 @@
         <v>0.34</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4505170345173131</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:E22" si="3">$E$4*D21*$G$4/$F$4</f>
+        <f t="shared" ref="E21:E22" si="8">$E$4*D21*$G$4/$F$4</f>
         <v>703016.69180428563</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>3.5194073061705042</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.67654271368132024</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1.6460999999999999</v>
+      </c>
+      <c r="K21">
+        <v>32.692</v>
+      </c>
+      <c r="L21">
+        <f>1.7 *25</f>
+        <v>42.5</v>
+      </c>
+      <c r="M21">
+        <f>L21/6</f>
+        <v>7.083333333333333</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0.14957481051224644</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>4.7921775552426842E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>430</v>
       </c>
@@ -1765,28 +1981,50 @@
         <v>0.47</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7598341238605091</v>
       </c>
       <c r="E22" s="6">
+        <f t="shared" si="8"/>
+        <v>826561.37526832428</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>5.177820972544934</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>826561.37526832428</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.67691526053782225</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="K22">
+        <v>25.853999999999999</v>
+      </c>
+      <c r="M22">
+        <f>100/14</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>4.8351090038415874E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>200</v>
       </c>
@@ -1794,24 +2032,193 @@
         <v>0.04</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="4">SQRT(2*100*C26/$E$4)</f>
+        <f t="shared" ref="D26" si="9">SQRT(2*100*C26/$E$4)</f>
         <v>2.5555062599997593</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ref="E26" si="5">$E$4*D26*$G$4/$F$4</f>
+        <f t="shared" ref="E26" si="10">$E$4*D26*$G$4/$F$4</f>
         <v>241132.73595200432</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F26">
+        <f t="shared" ref="F26" si="11">((J26^2-$C$7)/$C$8)^2</f>
+        <v>1.1585325608202335</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.58546948920544728</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>1.4941</v>
+      </c>
+      <c r="K26">
+        <v>54.326000000000001</v>
+      </c>
+      <c r="M26">
+        <f>200/12</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>9.7578248200907887E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>650</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" s="15">
+        <f>D32/4</f>
+        <v>6.25</v>
+      </c>
+      <c r="F32">
+        <f>D32*F13</f>
+        <v>35.362770705284589</v>
+      </c>
+      <c r="G32">
+        <f>E32*G14</f>
+        <v>4.8441032761573739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="7">
+        <v>820</v>
+      </c>
+      <c r="D33">
+        <f>8*25</f>
+        <v>200</v>
+      </c>
+      <c r="E33">
+        <f>D33/24</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F33">
+        <f>D33*F14</f>
+        <v>1580.4254563254547</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G39" si="12">E33*G15</f>
+        <v>4.2128912845098419E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <f>100/20</f>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="12"/>
+        <v>2.9766258370260843</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7">
+        <v>370</v>
+      </c>
+      <c r="D36">
+        <f>1.7 *25</f>
+        <v>42.5</v>
+      </c>
+      <c r="E36">
+        <f>D36/6</f>
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F36">
+        <f>D36*G21</f>
+        <v>28.75306533145611</v>
+      </c>
+      <c r="G36">
+        <f>E36*G21</f>
+        <v>4.7921775552426844</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="8">
+        <v>430</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <f>100/14</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="G37">
+        <f>E37*G22</f>
+        <v>4.8351090038415876</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <f>200/12</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G39">
+        <f>E39*G26</f>
+        <v>9.7578248200907893</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
